--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_8_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_8_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5120241422095708</v>
+        <v>0.4247399362549457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5120241422095708</v>
+        <v>0.4247399362549457</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.721960440887378</v>
+        <v>3.437088744209541</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.9128507445899965, 12.356771626364754]</t>
+          <t>[-3.263610140379976, 10.137787628799058]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3899122674376825</v>
+        <v>0.3070664956352052</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3899122674376825</v>
+        <v>0.3070664956352052</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.94973718240808</v>
+        <v>-1.484316048542925</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.044158775133162, 1.1446844103170024]</t>
+          <t>[-4.597606065613891, 1.628973968528041]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2109484815746894</v>
+        <v>0.3420561138320484</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2109484815746894</v>
+        <v>0.3420561138320484</v>
       </c>
       <c r="T2" t="n">
-        <v>14.13942631720563</v>
+        <v>13.14710404987823</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.53412422937352, 18.744728405037748]</t>
+          <t>[9.286558903493368, 17.00764919626309]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.66503315579547e-07</v>
+        <v>1.649467096243029e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.66503315579547e-07</v>
+        <v>1.649467096243029e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>7.959459459459637</v>
+        <v>6.139779779779925</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.672972972973078</v>
+        <v>-6.738148148148312</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.59189189189235</v>
+        <v>19.01770770770816</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5197704631384391</v>
+        <v>0.1717995454546799</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5197704631384391</v>
+        <v>0.1717995454546799</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.696775188923712</v>
+        <v>6.013798402429121</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.8733944811456995, 12.266944858993124]</t>
+          <t>[-2.5977641192036955, 14.625360924061937]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3895715607998789</v>
+        <v>0.1664357697222225</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3895715607998789</v>
+        <v>0.1664357697222225</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.9120798047119685, 1.3648160276856558]</t>
+          <t>[-4.000105961327544, 1.534631846798617]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2610479266730927</v>
+        <v>0.3743918048849006</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2610479266730927</v>
+        <v>0.3743918048849006</v>
       </c>
       <c r="T3" t="n">
-        <v>12.55322768113326</v>
+        <v>12.34873027058328</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.876322250758754, 17.23013311150776]</t>
+          <t>[7.6705221409887905, 17.026938400177773]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.354727269393564e-06</v>
+        <v>3.185495451418774e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.354727269393564e-06</v>
+        <v>3.185495451418774e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.240540540540703</v>
+        <v>5.099139139139265</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.571621621621743</v>
+        <v>-6.347907907908056</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.05270270270315</v>
+        <v>16.54618618618658</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6219513523406006</v>
+        <v>0.4482396754670903</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6219513523406006</v>
+        <v>0.4482396754670903</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.040458569144742</v>
+        <v>4.852044385301049</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-6.728963430655761, 14.809880568945246]</t>
+          <t>[-4.317154046175299, 14.021242816777397]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4537971666814404</v>
+        <v>0.2921998736671196</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4537971666814404</v>
+        <v>0.2921998736671196</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.704474156243465</v>
+        <v>3.138447916198813</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.842922072442277, 0.4339737599553466]</t>
+          <t>[0.006289474781961957, 6.270606357615663]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.08947854125999033</v>
+        <v>0.04956089837345656</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08947854125999033</v>
+        <v>0.04956089837345656</v>
       </c>
       <c r="T4" t="n">
-        <v>16.95731903322015</v>
+        <v>12.89049223723838</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[11.274377505845464, 22.64026056059484]</t>
+          <t>[7.667621531284178, 18.113362943192577]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.018698029322309e-07</v>
+        <v>1.013175645137032e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>3.018698029322309e-07</v>
+        <v>1.013175645137032e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>11.04054054054079</v>
+        <v>13.00800800800832</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.771621621621659</v>
+        <v>0.05203203203203266</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.85270270270323</v>
+        <v>25.9639839839846</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8331556981546576</v>
+        <v>0.1041821606610601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8331556981546576</v>
+        <v>0.1041821606610601</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.992739506318786</v>
+        <v>8.104526701766977</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-7.292734449475384, 11.278213462112957]</t>
+          <t>[-0.6872988987531379, 16.89635230228709]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.6676289440988039</v>
+        <v>0.06991441269470422</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6676289440988039</v>
+        <v>0.06991441269470422</v>
       </c>
       <c r="P5" t="n">
-        <v>2.484342538874812</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, 5.622790455073624]</t>
+          <t>[1.54092132158058, 4.559869216922122]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1178624962588095</v>
+        <v>0.0001873823586069356</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1178624962588095</v>
+        <v>0.0001873823586069356</v>
       </c>
       <c r="T5" t="n">
-        <v>10.64736134409782</v>
+        <v>14.96646721754418</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.901252851549334, 15.393469836646297]</t>
+          <t>[9.823809331244375, 20.109125103843994]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.484225852419144e-05</v>
+        <v>5.009758341500969e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>4.484225852419144e-05</v>
+        <v>5.009758341500969e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>15.50810810810845</v>
+        <v>13.37223223223255</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.695945945946002</v>
+        <v>7.12838838838856</v>
       </c>
       <c r="Z5" t="n">
-        <v>28.3202702702709</v>
+        <v>19.61607607607655</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1979110080477855</v>
+        <v>0.1209662963595197</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1979110080477855</v>
+        <v>0.1209662963595197</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.207127420326019</v>
+        <v>7.766743941787206</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.616141562820193, 15.030396403472231]</t>
+          <t>[-0.8808765686620346, 16.414364452236445]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1633949314193768</v>
+        <v>0.07714415318476098</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1633949314193768</v>
+        <v>0.07714415318476098</v>
       </c>
       <c r="P6" t="n">
-        <v>2.685605731897581</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.38994743648161645, 5.7611589002767785]</t>
+          <t>[-4.641632389087622, -1.496894998106848]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.08542119666904879</v>
+        <v>0.0002884548763550931</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08542119666904879</v>
+        <v>0.0002884548763550931</v>
       </c>
       <c r="T6" t="n">
-        <v>13.45316165510132</v>
+        <v>15.67067648840786</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.643132015768527, 18.263191294434108]</t>
+          <t>[10.606007422114892, 20.735345554700828]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.090219940991233e-06</v>
+        <v>1.412369281528214e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.090219940991233e-06</v>
+        <v>1.412369281528214e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>14.68648648648681</v>
+        <v>12.69581581581612</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.131081081081126</v>
+        <v>6.191811811811959</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.2418918918925</v>
+        <v>19.19981981982028</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06409780002320786</v>
+        <v>0.1058206657496475</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06409780002320786</v>
+        <v>0.1058206657496475</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>8.319119873667736</v>
+        <v>7.121160980007748</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.3283210626475999, 17.966560809983072]</t>
+          <t>[-1.7317874158580935, 15.974109375873589]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.08926624135003713</v>
+        <v>0.1121962639491951</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08926624135003713</v>
+        <v>0.1121962639491951</v>
       </c>
       <c r="P7" t="n">
-        <v>2.031500354573581</v>
+        <v>2.018921405009658</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.22013161736865516, 3.842869091778506]</t>
+          <t>[-0.8490790955648073, 4.886921905584122]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.02878438620283541</v>
+        <v>0.1631302982902447</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02878438620283541</v>
+        <v>0.1631302982902447</v>
       </c>
       <c r="T7" t="n">
-        <v>16.59834131572885</v>
+        <v>12.81284714104955</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[11.528437773386965, 21.66824485807074]</t>
+          <t>[7.937913975471629, 17.68778030662746]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.086149552051666e-08</v>
+        <v>3.439699694629539e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>4.086149552051666e-08</v>
+        <v>3.439699694629539e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>17.35675675675714</v>
+        <v>17.63885885885928</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.962162162162382</v>
+        <v>5.775555555555695</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.7513513513519</v>
+        <v>29.50216216216286</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4568735012941368</v>
+        <v>0.7771465098673322</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4568735012941368</v>
+        <v>0.7771465098673322</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.089730162674072</v>
+        <v>2.589062513994125</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.660336995429483, 12.839797320777627]</t>
+          <t>[-7.044623018718188, 12.222748046706439]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3515364794742437</v>
+        <v>0.5909760288519299</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3515364794742437</v>
+        <v>0.5909760288519299</v>
       </c>
       <c r="P8" t="n">
-        <v>2.295658295415965</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.8427896207828471, 5.434106211614777]</t>
+          <t>[-2.3396846188896956, 3.9372112135079296]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1476467897293976</v>
+        <v>0.6107330534666835</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1476467897293976</v>
+        <v>0.6107330534666835</v>
       </c>
       <c r="T8" t="n">
-        <v>10.6033653482014</v>
+        <v>13.12404520056844</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.884383502786418, 15.32234719361639]</t>
+          <t>[8.049867674392694, 18.198222726744177]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.380760017808072e-05</v>
+        <v>4.567594132032227e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>4.380760017808072e-05</v>
+        <v>4.567594132032227e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>16.27837837837874</v>
+        <v>22.68596596596651</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.466216216216294</v>
+        <v>9.703973973974206</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.09054054054118</v>
+        <v>35.66795795795881</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02573181704913385</v>
+        <v>0.5004101810786191</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02573181704913385</v>
+        <v>0.5004101810786191</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.11439106068485</v>
+        <v>3.303203079929304</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.970931241832675, 13.257850879537026]</t>
+          <t>[-4.331095870168257, 10.937502030026865]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.02421107623274898</v>
+        <v>0.3881283565448499</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02421107623274898</v>
+        <v>0.3881283565448499</v>
       </c>
       <c r="P9" t="n">
-        <v>1.717026615475503</v>
+        <v>2.031500354573581</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 2.974921571867813]</t>
+          <t>[-1.1006580868432696, 5.163658795990431]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.008568608778102726</v>
+        <v>0.1980760697920927</v>
       </c>
       <c r="S9" t="n">
-        <v>0.008568608778102726</v>
+        <v>0.1980760697920927</v>
       </c>
       <c r="T9" t="n">
-        <v>12.14125140786173</v>
+        <v>10.75012492226931</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.414455389911025, 15.868047425812426]</t>
+          <t>[6.605394862889423, 14.8948549816492]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.565202105233368e-08</v>
+        <v>4.349071973885899e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.565202105233368e-08</v>
+        <v>4.349071973885899e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>18.64054054054095</v>
+        <v>17.58682682682725</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5054054054057</v>
+        <v>4.63085085085096</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.7756756756762</v>
+        <v>30.54280280280353</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1176248898272663</v>
+        <v>0.2767562625656335</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1176248898272663</v>
+        <v>0.2767562625656335</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.99711071527503</v>
+        <v>5.770793216245508</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.9411121891076224, 10.935333619657682]</t>
+          <t>[-3.6982764904632326, 15.239862922954249]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.09700466828038135</v>
+        <v>0.2260295868642257</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09700466828038135</v>
+        <v>0.2260295868642257</v>
       </c>
       <c r="P10" t="n">
-        <v>1.704447665911579</v>
+        <v>0.7232895999255788</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.06918422260157797, 3.3397111092215805]</t>
+          <t>[-2.377421467581465, 3.824000667432623]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.04142956868842984</v>
+        <v>0.640751560567399</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04142956868842984</v>
+        <v>0.640751560567399</v>
       </c>
       <c r="T10" t="n">
-        <v>10.67001115406002</v>
+        <v>14.53684316236063</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.192524943623734, 14.147497364496306]</t>
+          <t>[9.616208036813472, 19.457478287907794]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.687428980989836e-07</v>
+        <v>3.701752233631339e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.687428980989836e-07</v>
+        <v>3.701752233631339e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>18.69189189189231</v>
+        <v>22.99815815815871</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.01621621621649</v>
+        <v>10.1722622622625</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.36756756756813</v>
+        <v>35.82405405405491</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.65000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05205774383904305</v>
+        <v>0.005454779642781848</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05205774383904305</v>
+        <v>0.005454779642781848</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>8.711043146543297</v>
+        <v>13.04034186206953</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.6922753890176239, 18.114361682104217]</t>
+          <t>[3.298951187065903, 22.781732537073164]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.06859235652637574</v>
+        <v>0.009831460814239357</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06859235652637574</v>
+        <v>0.009831460814239357</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7232895999255788</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.8868424345884645, 3.333421634439622]</t>
+          <t>[-0.4339737599553475, 1.2012896833546565]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5795254399541119</v>
+        <v>0.3496654911047496</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5795254399541119</v>
+        <v>0.3496654911047496</v>
       </c>
       <c r="T11" t="n">
-        <v>14.01176864004522</v>
+        <v>15.58821274573508</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.172400905581142, 18.8511363745093]</t>
+          <t>[10.38875783741409, 20.78766765405606]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.549324992859539e-07</v>
+        <v>2.738456630346775e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>5.549324992859539e-07</v>
+        <v>2.738456630346775e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>22.6972972972978</v>
+        <v>24.40302302302361</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.04189189189215</v>
+        <v>21.02094094094144</v>
       </c>
       <c r="Z11" t="n">
-        <v>33.35270270270345</v>
+        <v>27.78510510510577</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.11000000000002</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06529319867258376</v>
+        <v>0.09507624118705293</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06529319867258376</v>
+        <v>0.09507624118705293</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.013067465033373</v>
+        <v>6.17357298569927</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.44245630407018766, 12.468591234136934]</t>
+          <t>[-1.317640982038382, 13.664786953436922]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.06714252854275249</v>
+        <v>0.1039007215994074</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06714252854275249</v>
+        <v>0.1039007215994074</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1823947686768852</v>
+        <v>0.685552751233808</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.2956318050840787, 1.6604213424378491]</t>
+          <t>[-2.339684618889696, 3.710790121357312]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.8048405585784737</v>
+        <v>0.6502844840287221</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8048405585784737</v>
+        <v>0.6502844840287221</v>
       </c>
       <c r="T12" t="n">
-        <v>10.31411613237902</v>
+        <v>12.5322268719883</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.6626508581575745, 13.965581406600466]</t>
+          <t>[8.57723858015137, 16.487215163825237]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>9.015067039541691e-07</v>
+        <v>8.442401755459628e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>9.015067039541691e-07</v>
+        <v>8.442401755459628e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>21.46816816816818</v>
+        <v>20.552852852853</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.26711711711713</v>
+        <v>9.445075075075147</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.66921921921924</v>
+        <v>31.66063063063086</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.11000000000002</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1070786241864667</v>
+        <v>0.2651477772558384</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1070786241864667</v>
+        <v>0.2651477772558384</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.432832253057374</v>
+        <v>6.301889353066726</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.3330744852834595, 14.198738991398207]</t>
+          <t>[-3.7484445447569934, 16.352223250890447]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1021873098746597</v>
+        <v>0.2131268108573707</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1021873098746597</v>
+        <v>0.2131268108573707</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2012631930227693</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.8805529598065025, 1.478026573760964]</t>
+          <t>[-2.0881056276112337, 4.1636323056585445]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.8103489192753806</v>
+        <v>0.5071243104106871</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8103489192753806</v>
+        <v>0.5071243104106871</v>
       </c>
       <c r="T13" t="n">
-        <v>12.01989612667159</v>
+        <v>16.15988720605139</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.643902841430075, 16.395889411913096]</t>
+          <t>[10.789408565047097, 21.530365847055684]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.535743953562374e-06</v>
+        <v>2.539095060871688e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.535743953562374e-06</v>
+        <v>2.539095060871688e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7082282282282293</v>
+        <v>19.25963963963978</v>
       </c>
       <c r="Y13" t="n">
-        <v>-5.201051051051055</v>
+        <v>7.782372372372429</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.617507507507513</v>
+        <v>30.73690690690713</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.11000000000002</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4391705217683043</v>
+        <v>0.2823369354273677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4391705217683043</v>
+        <v>0.2823369354273677</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.991555491019219</v>
+        <v>6.953591140033126</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-6.302711161845683, 18.285822143884122]</t>
+          <t>[-4.875818910528935, 18.783001190595186]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3315626253977162</v>
+        <v>0.2426551085823132</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3315626253977162</v>
+        <v>0.2426551085823132</v>
       </c>
       <c r="P14" t="n">
-        <v>1.13839493553504</v>
+        <v>0.6352369529781159</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.9937635058818106, 4.2705533769518915]</t>
+          <t>[-2.490632013656773, 3.7611059196130046]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.4679436308377347</v>
+        <v>0.6842577833918571</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4679436308377347</v>
+        <v>0.6842577833918571</v>
       </c>
       <c r="T14" t="n">
-        <v>16.93241497504408</v>
+        <v>18.45973479113314</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[10.537753600754534, 23.327076349333623]</t>
+          <t>[12.295537968521526, 24.623931613744755]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.011563123545002e-06</v>
+        <v>2.802900458398483e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>3.011563123545002e-06</v>
+        <v>2.802900458398483e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>18.1040840840841</v>
+        <v>20.73759759759775</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.082282282282286</v>
+        <v>9.260330330330401</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.12588588588591</v>
+        <v>32.21486486486509</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.11000000000002</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5249160389042005</v>
+        <v>0.01514258309367089</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5249160389042005</v>
+        <v>0.01514258309367089</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.389056918762645</v>
+        <v>8.613259873545489</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-5.555256124681495, 14.333369962206785]</t>
+          <t>[1.7946019063813736, 15.431917840709605]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.3787564859147621</v>
+        <v>0.01445554488638279</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3787564859147621</v>
+        <v>0.01445554488638279</v>
       </c>
       <c r="P15" t="n">
-        <v>1.37739497724958</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.7610529389492333, 4.515842893448393]</t>
+          <t>[0.34592111300788453, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3814242587135517</v>
+        <v>0.01083980483191826</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3814242587135517</v>
+        <v>0.01083980483191826</v>
       </c>
       <c r="T15" t="n">
-        <v>13.54211371654093</v>
+        <v>13.03528811470298</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.255904980038206, 18.828322453043658]</t>
+          <t>[9.068863855663153, 17.00171237374281]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.395571737398797e-06</v>
+        <v>3.748329668873396e-08</v>
       </c>
       <c r="W15" t="n">
-        <v>5.395571737398797e-06</v>
+        <v>3.748329668873396e-08</v>
       </c>
       <c r="X15" t="n">
-        <v>17.26306306306307</v>
+        <v>17.827867867868</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.219129129129128</v>
+        <v>13.85585585585596</v>
       </c>
       <c r="Z15" t="n">
-        <v>28.30699699699701</v>
+        <v>21.79987987988004</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_8_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_8_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4247399362549457</v>
+        <v>0.1243959319210074</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4247399362549457</v>
+        <v>0.1243959319210074</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.437088744209541</v>
+        <v>7.827479220206319</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.263610140379976, 10.137787628799058]</t>
+          <t>[-1.8722967202766263, 17.527255160689265]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3070664956352052</v>
+        <v>0.1110761784799572</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3070664956352052</v>
+        <v>0.1110761784799572</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.484316048542925</v>
+        <v>-1.71073714069354</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.597606065613891, 1.628973968528041]</t>
+          <t>[-3.3711584831313886, -0.0503157982556921]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3420561138320484</v>
+        <v>0.0437202050446559</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3420561138320484</v>
+        <v>0.0437202050446559</v>
       </c>
       <c r="T2" t="n">
-        <v>13.14710404987823</v>
+        <v>13.71122015068629</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.286558903493368, 17.00764919626309]</t>
+          <t>[8.235860896168827, 19.186579405203744]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.649467096243029e-08</v>
+        <v>7.953494383761139e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.649467096243029e-08</v>
+        <v>7.953494383761139e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.139779779779925</v>
+        <v>6.975615615615769</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.738148148148312</v>
+        <v>0.2051651651651705</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.01770770770816</v>
+        <v>13.74606606606637</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1717995454546799</v>
+        <v>0.07818518289102316</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1717995454546799</v>
+        <v>0.07818518289102316</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.013798402429121</v>
+        <v>7.211952240690046</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.5977641192036955, 14.625360924061937]</t>
+          <t>[-0.7161937606391078, 15.1400982420192]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1664357697222225</v>
+        <v>0.0735507480925901</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1664357697222225</v>
+        <v>0.0735507480925901</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.232737057264464</v>
+        <v>-2.176158274558696</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.000105961327544, 1.534631846798617]</t>
+          <t>[-4.748553460380968, 0.39623691126357663]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3743918048849006</v>
+        <v>0.09530397499556553</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3743918048849006</v>
+        <v>0.09530397499556553</v>
       </c>
       <c r="T3" t="n">
-        <v>12.34873027058328</v>
+        <v>14.1950167442026</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.6705221409887905, 17.026938400177773]</t>
+          <t>[9.787249730825245, 18.602783757579957]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.185495451418774e-06</v>
+        <v>5.907821698514226e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>3.185495451418774e-06</v>
+        <v>5.907821698514226e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>5.099139139139265</v>
+        <v>8.873393393393592</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.347907907908056</v>
+        <v>-1.615675675675707</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.54618618618658</v>
+        <v>19.36246246246289</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4482396754670903</v>
+        <v>0.7102784387162886</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4482396754670903</v>
+        <v>0.7102784387162886</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.852044385301049</v>
+        <v>2.787769243182</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.317154046175299, 14.021242816777397]</t>
+          <t>[-6.270514990153801, 11.8460534765178]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2921998736671196</v>
+        <v>0.5384771458389719</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2921998736671196</v>
+        <v>0.5384771458389719</v>
       </c>
       <c r="P4" t="n">
-        <v>3.138447916198813</v>
+        <v>-2.465474114528927</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.006289474781961957, 6.270606357615663]</t>
+          <t>[-5.603922030727739, 0.6729738016698859]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04956089837345656</v>
+        <v>0.1206028904909404</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04956089837345656</v>
+        <v>0.1206028904909404</v>
       </c>
       <c r="T4" t="n">
-        <v>12.89049223723838</v>
+        <v>13.72515263016612</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.667621531284178, 18.113362943192577]</t>
+          <t>[9.046608930175871, 18.403696330156375]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.013175645137032e-05</v>
+        <v>4.265967463723541e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.013175645137032e-05</v>
+        <v>4.265967463723541e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>13.00800800800832</v>
+        <v>10.05309309309331</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05203203203203266</v>
+        <v>-2.744084084084145</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.9639839839846</v>
+        <v>22.85027027027078</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1041821606610601</v>
+        <v>0.06899692247781752</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1041821606610601</v>
+        <v>0.06899692247781752</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>8.104526701766977</v>
+        <v>6.839967728283437</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.6872988987531379, 16.89635230228709]</t>
+          <t>[-1.1297148541927307, 14.809650310759604]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06991441269470422</v>
+        <v>0.09073708632346911</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06991441269470422</v>
+        <v>0.09073708632346911</v>
       </c>
       <c r="P5" t="n">
-        <v>3.050395269251351</v>
+        <v>2.144710900648888</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 4.559869216922122]</t>
+          <t>[0.006289474781961069, 4.2831323265158145]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0001873823586069356</v>
+        <v>0.04935798527657465</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0001873823586069356</v>
+        <v>0.04935798527657465</v>
       </c>
       <c r="T5" t="n">
-        <v>14.96646721754418</v>
+        <v>13.1733077637752</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.823809331244375, 20.109125103843994]</t>
+          <t>[8.959752057734697, 17.386863469815694]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.009758341500969e-07</v>
+        <v>1.130344624566959e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>5.009758341500969e-07</v>
+        <v>1.130344624566959e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>13.37223223223255</v>
+        <v>16.87483483483521</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.12838838838856</v>
+        <v>8.155315315315491</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.61607607607655</v>
+        <v>25.59435435435492</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1209662963595197</v>
+        <v>0.4464901391856672</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1209662963595197</v>
+        <v>0.4464901391856672</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.766743941787206</v>
+        <v>4.410874380011241</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.8808765686620346, 16.414364452236445]</t>
+          <t>[-4.641272098000758, 13.463020858023238]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.07714415318476098</v>
+        <v>0.3316329575851051</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07714415318476098</v>
+        <v>0.3316329575851051</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.069263693597235</v>
+        <v>-2.452895164965003</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.641632389087622, -1.496894998106848]</t>
+          <t>[-5.591343081163815, 0.6855527512338089]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0002884548763550931</v>
+        <v>0.1224582913247891</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0002884548763550931</v>
+        <v>0.1224582913247891</v>
       </c>
       <c r="T6" t="n">
-        <v>15.67067648840786</v>
+        <v>12.56355831036753</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.606007422114892, 20.735345554700828]</t>
+          <t>[7.765527402724246, 17.36158921801082]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.412369281528214e-07</v>
+        <v>3.676768294713639e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.412369281528214e-07</v>
+        <v>3.676768294713639e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>12.69581581581612</v>
+        <v>10.00180180180202</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.191811811811959</v>
+        <v>-2.795375375375437</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.19981981982028</v>
+        <v>22.79897897897948</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1058206657496475</v>
+        <v>0.03402403560269807</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1058206657496475</v>
+        <v>0.03402403560269807</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.121160980007748</v>
+        <v>6.263086332453957</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.7317874158580935, 15.974109375873589]</t>
+          <t>[-0.24488692286373848, 12.771059587771653]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1121962639491951</v>
+        <v>0.05887332536809087</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1121962639491951</v>
+        <v>0.05887332536809087</v>
       </c>
       <c r="P7" t="n">
-        <v>2.018921405009658</v>
+        <v>2.220184598032426</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.8490790955648073, 4.886921905584122]</t>
+          <t>[0.4968685077749626, 3.9435006882898893]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1631302982902447</v>
+        <v>0.01273158879066183</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1631302982902447</v>
+        <v>0.01273158879066183</v>
       </c>
       <c r="T7" t="n">
-        <v>12.81284714104955</v>
+        <v>10.44670992151631</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.937913975471629, 17.68778030662746]</t>
+          <t>[7.05322432565527, 13.840195517377348]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.439699694629539e-06</v>
+        <v>1.573391243958611e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.439699694629539e-06</v>
+        <v>1.573391243958611e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>17.63885885885928</v>
+        <v>16.56708708708745</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.775555555555695</v>
+        <v>9.540180180180396</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.50216216216286</v>
+        <v>23.59399399399451</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7771465098673322</v>
+        <v>0.003017694701627383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7771465098673322</v>
+        <v>0.003017694701627383</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2.589062513994125</v>
+        <v>8.392706833604995</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-7.044623018718188, 12.222748046706439]</t>
+          <t>[2.606294013575061, 14.17911965363493]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.5909760288519299</v>
+        <v>0.005433166840830284</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5909760288519299</v>
+        <v>0.005433166840830284</v>
       </c>
       <c r="P8" t="n">
-        <v>0.798763297309117</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.3396846188896956, 3.9372112135079296]</t>
+          <t>[0.47171060864711656, 2.182447749340657]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6107330534666835</v>
+        <v>0.003111229227731327</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6107330534666835</v>
+        <v>0.003111229227731327</v>
       </c>
       <c r="T8" t="n">
-        <v>13.12404520056844</v>
+        <v>12.14722439803085</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.049867674392694, 18.198222726744177]</t>
+          <t>[8.793309546438984, 15.501139249622714]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.567594132032227e-06</v>
+        <v>3.73270836462325e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>4.567594132032227e-06</v>
+        <v>3.73270836462325e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>22.68596596596651</v>
+        <v>20.20876876876921</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.703973973974206</v>
+        <v>16.72096096096133</v>
       </c>
       <c r="Z8" t="n">
-        <v>35.66795795795881</v>
+        <v>23.6965765765771</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5004101810786191</v>
+        <v>0.09649009205418047</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5004101810786191</v>
+        <v>0.09649009205418047</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.303203079929304</v>
+        <v>5.57861995870852</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.331095870168257, 10.937502030026865]</t>
+          <t>[-1.466303754102281, 12.623543671519322]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3881283565448499</v>
+        <v>0.1177358282832142</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3881283565448499</v>
+        <v>0.1177358282832142</v>
       </c>
       <c r="P9" t="n">
-        <v>2.031500354573581</v>
+        <v>2.408868841491273</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.1006580868432696, 5.163658795990431]</t>
+          <t>[-0.7232895999255771, 5.541027282908123]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1980760697920927</v>
+        <v>0.1283868701333355</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1980760697920927</v>
+        <v>0.1283868701333355</v>
       </c>
       <c r="T9" t="n">
-        <v>10.75012492226931</v>
+        <v>9.275438501657298</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.605394862889423, 14.8948549816492]</t>
+          <t>[5.636297180127595, 12.914579823187001]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.349071973885899e-06</v>
+        <v>5.889535131586854e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.349071973885899e-06</v>
+        <v>5.889535131586854e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>17.58682682682725</v>
+        <v>15.79771771771806</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.63085085085096</v>
+        <v>3.026186186186255</v>
       </c>
       <c r="Z9" t="n">
-        <v>30.54280280280353</v>
+        <v>28.56924924924988</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2767562625656335</v>
+        <v>0.06168224606818884</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2767562625656335</v>
+        <v>0.06168224606818884</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.770793216245508</v>
+        <v>8.021683379208529</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.6982764904632326, 15.239862922954249]</t>
+          <t>[-0.1990345194210441, 16.242401277838102]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2260295868642257</v>
+        <v>0.05556526329910105</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2260295868642257</v>
+        <v>0.05556526329910105</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7232895999255788</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.377421467581465, 3.824000667432623]</t>
+          <t>[0.15723686954903737, 2.9246057736121207]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.640751560567399</v>
+        <v>0.02986843403989714</v>
       </c>
       <c r="S10" t="n">
-        <v>0.640751560567399</v>
+        <v>0.02986843403989714</v>
       </c>
       <c r="T10" t="n">
-        <v>14.53684316236063</v>
+        <v>15.2551573470875</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.616208036813472, 19.457478287907794]</t>
+          <t>[10.417269694162496, 20.093045000012513]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.701752233631339e-07</v>
+        <v>9.391744626441323e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>3.701752233631339e-07</v>
+        <v>9.391744626441323e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>22.99815815815871</v>
+        <v>19.33681681681724</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.1722622622625</v>
+        <v>13.69477477477507</v>
       </c>
       <c r="Z10" t="n">
-        <v>35.82405405405491</v>
+        <v>24.97885885885941</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.99000000000062</v>
+        <v>25.62000000000057</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005454779642781848</v>
+        <v>0.3863642415722922</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005454779642781848</v>
+        <v>0.3863642415722922</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>13.04034186206953</v>
+        <v>4.850985376248234</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[3.298951187065903, 22.781732537073164]</t>
+          <t>[-4.182508268882126, 13.884479021378594]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.009831460814239357</v>
+        <v>0.2852043075678887</v>
       </c>
       <c r="O11" t="n">
-        <v>0.009831460814239357</v>
+        <v>0.2852043075678887</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3836579616996545</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.4339737599553475, 1.2012896833546565]</t>
+          <t>[-2.490632013656773, 3.7359480204851585]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.3496654911047496</v>
+        <v>0.6889875392040854</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3496654911047496</v>
+        <v>0.6889875392040854</v>
       </c>
       <c r="T11" t="n">
-        <v>15.58821274573508</v>
+        <v>12.61684766181174</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[10.38875783741409, 20.78766765405606]</t>
+          <t>[7.781661411474391, 17.45203391214909]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.738456630346775e-07</v>
+        <v>3.910618042946012e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.738456630346775e-07</v>
+        <v>3.910618042946012e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>24.40302302302361</v>
+        <v>23.08108108108159</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.02094094094144</v>
+        <v>10.38648648648672</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.78510510510577</v>
+        <v>35.77567567567647</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,73 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.07000000000017</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09507624118705293</v>
+        <v>0.05610659813399954</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09507624118705293</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>0.05610659813399954</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3838154811783658</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3838154811783658</v>
+      </c>
       <c r="L12" t="n">
-        <v>6.17357298569927</v>
+        <v>6.90766844707043</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.317640982038382, 13.664786953436922]</t>
+          <t>[-0.8812993777697589, 14.696636271910618]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1039007215994074</v>
+        <v>0.08080351010211162</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1039007215994074</v>
+        <v>0.08080351010211162</v>
       </c>
       <c r="P12" t="n">
-        <v>0.685552751233808</v>
+        <v>0.5849211547224238</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.339684618889696, 3.710790121357312]</t>
+          <t>[-1.3082107546480017, 2.4780530640928493]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.6502844840287221</v>
+        <v>0.5368867650392621</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6502844840287221</v>
+        <v>0.5368867650392621</v>
       </c>
       <c r="T12" t="n">
-        <v>12.5322268719883</v>
+        <v>10.64435210977939</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.57723858015137, 16.487215163825237]</t>
+          <t>[6.670305262832388, 14.618398956726397]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.442401755459628e-08</v>
+        <v>2.446549988377456e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>8.442401755459628e-08</v>
+        <v>2.446549988377456e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>20.552852852853</v>
+        <v>19.95195195195195</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.445075075075147</v>
+        <v>13.32332332332332</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.66063063063086</v>
+        <v>26.58058058058058</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1531,73 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.07000000000017</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2651477772558384</v>
+        <v>0.5134094397981309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2651477772558384</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.5134094397981309</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6369887394088105</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6369887394088105</v>
+      </c>
       <c r="L13" t="n">
-        <v>6.301889353066726</v>
+        <v>4.880099479785527</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.7484445447569934, 16.352223250890447]</t>
+          <t>[-6.801153777581466, 16.56135273715252]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2131268108573707</v>
+        <v>0.4045532228359954</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2131268108573707</v>
+        <v>0.4045532228359954</v>
       </c>
       <c r="P13" t="n">
-        <v>1.037763339023655</v>
+        <v>0.4465527095192696</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.0881056276112337, 4.1636323056585445]</t>
+          <t>[-2.6478688832058124, 3.5409743022443516]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.5071243104106871</v>
+        <v>0.772651984054634</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5071243104106871</v>
+        <v>0.772651984054634</v>
       </c>
       <c r="T13" t="n">
-        <v>16.15988720605139</v>
+        <v>14.53845487761204</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[10.789408565047097, 21.530365847055684]</t>
+          <t>[8.495256875439248, 20.581652879784833]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.539095060871688e-07</v>
+        <v>1.536241028032848e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>2.539095060871688e-07</v>
+        <v>1.536241028032848e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>19.25963963963978</v>
+        <v>20.43643643643644</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.782372372372429</v>
+        <v>9.601601601601601</v>
       </c>
       <c r="Z13" t="n">
-        <v>30.73690690690713</v>
+        <v>31.27127127127127</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1621,73 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.07000000000017</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2823369354273677</v>
+        <v>0.2637441045423925</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2823369354273677</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>0.2637441045423925</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.53993125328614</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.53993125328614</v>
+      </c>
       <c r="L14" t="n">
-        <v>6.953591140033126</v>
+        <v>5.894887475732599</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.875818910528935, 18.783001190595186]</t>
+          <t>[-3.688462172126581, 15.478237123591779]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.2426551085823132</v>
+        <v>0.2218020525202933</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2426551085823132</v>
+        <v>0.2218020525202933</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6352369529781159</v>
+        <v>1.025184389459732</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.490632013656773, 3.7611059196130046]</t>
+          <t>[-2.0503687789194647, 4.100737557838929]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.6842577833918571</v>
+        <v>0.5054182016255244</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6842577833918571</v>
+        <v>0.5054182016255244</v>
       </c>
       <c r="T14" t="n">
-        <v>18.45973479113314</v>
+        <v>14.42395706655667</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[12.295537968521526, 24.623931613744755]</t>
+          <t>[9.491549605562607, 19.356364527550735]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.802900458398483e-07</v>
+        <v>4.548104963753019e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>2.802900458398483e-07</v>
+        <v>4.548104963753019e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>20.73759759759775</v>
+        <v>18.41041041041041</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.260330330330401</v>
+        <v>7.641641641641641</v>
       </c>
       <c r="Z14" t="n">
-        <v>32.21486486486509</v>
+        <v>29.17917917917918</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1711,73 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.07000000000017</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01514258309367089</v>
+        <v>0.07324120639860277</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01514258309367089</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>0.07324120639860277</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02442126065921779</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.02442126065921779</v>
+      </c>
       <c r="L15" t="n">
-        <v>8.613259873545489</v>
+        <v>6.467697478699449</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[1.7946019063813736, 15.431917840709605]</t>
+          <t>[-1.295295742014126, 14.230690699413024]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.01445554488638279</v>
+        <v>0.100272303224088</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01445554488638279</v>
+        <v>0.100272303224088</v>
       </c>
       <c r="P15" t="n">
-        <v>1.427710775505271</v>
+        <v>2.496921488438735</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.34592111300788453, 2.5095004380026573]</t>
+          <t>[-0.09434212172942313, 5.088185098606893]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.01083980483191826</v>
+        <v>0.05856545521108769</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01083980483191826</v>
+        <v>0.05856545521108769</v>
       </c>
       <c r="T15" t="n">
-        <v>13.03528811470298</v>
+        <v>11.75362882564565</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[9.068863855663153, 17.00171237374281]</t>
+          <t>[7.742079966326691, 15.765177684964613]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.748329668873396e-08</v>
+        <v>4.375596951433636e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>3.748329668873396e-08</v>
+        <v>4.375596951433636e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>17.827867867868</v>
+        <v>13.25725725725726</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.85585585585596</v>
+        <v>4.184184184184183</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.79987987988004</v>
+        <v>22.33033033033033</v>
       </c>
     </row>
   </sheetData>
